--- a/Data/Raw/3_LT_RECC_ProductLifetime_industry_V1.0_raw.xlsx
+++ b/Data/Raw/3_LT_RECC_ProductLifetime_industry_V1.0_raw.xlsx
@@ -24432,7 +24432,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
@@ -24449,7 +24449,7 @@
         <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -24466,7 +24466,7 @@
         <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
         <v>72</v>
@@ -24483,7 +24483,7 @@
         <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>72</v>
@@ -24500,7 +24500,7 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>72</v>
@@ -24517,7 +24517,7 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>72</v>
@@ -24534,7 +24534,7 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
@@ -24551,7 +24551,7 @@
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
         <v>72</v>
@@ -24568,7 +24568,7 @@
         <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>72</v>
@@ -24585,7 +24585,7 @@
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -24602,7 +24602,7 @@
         <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
@@ -24619,7 +24619,7 @@
         <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>72</v>
@@ -24636,7 +24636,7 @@
         <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
@@ -24653,7 +24653,7 @@
         <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
@@ -24670,7 +24670,7 @@
         <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
         <v>89</v>
@@ -24687,7 +24687,7 @@
         <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>89</v>
@@ -24704,7 +24704,7 @@
         <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
         <v>89</v>
@@ -24721,7 +24721,7 @@
         <v>70</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
         <v>89</v>
@@ -24738,7 +24738,7 @@
         <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
         <v>89</v>
@@ -24755,7 +24755,7 @@
         <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
         <v>89</v>
@@ -24772,7 +24772,7 @@
         <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
         <v>89</v>
@@ -24789,7 +24789,7 @@
         <v>70</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
         <v>89</v>
@@ -24806,7 +24806,7 @@
         <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
         <v>89</v>
@@ -24823,7 +24823,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
         <v>89</v>
@@ -24840,7 +24840,7 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
         <v>89</v>
@@ -24857,7 +24857,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
         <v>89</v>
@@ -24874,7 +24874,7 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
         <v>89</v>
@@ -24891,7 +24891,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
         <v>89</v>
@@ -24908,7 +24908,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
@@ -24925,7 +24925,7 @@
         <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
         <v>72</v>
@@ -24942,7 +24942,7 @@
         <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
@@ -24959,7 +24959,7 @@
         <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
         <v>72</v>
@@ -24976,7 +24976,7 @@
         <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
         <v>72</v>
@@ -24993,7 +24993,7 @@
         <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
         <v>72</v>
@@ -25010,7 +25010,7 @@
         <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
         <v>72</v>
@@ -25027,7 +25027,7 @@
         <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
         <v>72</v>
@@ -25044,7 +25044,7 @@
         <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
         <v>72</v>
@@ -25061,7 +25061,7 @@
         <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
         <v>72</v>
@@ -25078,7 +25078,7 @@
         <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
         <v>72</v>
@@ -25095,7 +25095,7 @@
         <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
         <v>72</v>
@@ -25112,7 +25112,7 @@
         <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
         <v>72</v>
@@ -25129,7 +25129,7 @@
         <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
         <v>72</v>
@@ -25146,7 +25146,7 @@
         <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
         <v>89</v>
@@ -25163,7 +25163,7 @@
         <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
         <v>89</v>
@@ -25180,7 +25180,7 @@
         <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
         <v>89</v>
@@ -25197,7 +25197,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>89</v>
@@ -25214,7 +25214,7 @@
         <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
         <v>89</v>
@@ -25231,7 +25231,7 @@
         <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
         <v>89</v>
@@ -25248,7 +25248,7 @@
         <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
         <v>89</v>
@@ -25265,7 +25265,7 @@
         <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
         <v>89</v>
@@ -25282,7 +25282,7 @@
         <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C52" t="s">
         <v>89</v>
@@ -25299,7 +25299,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
         <v>89</v>
@@ -25316,7 +25316,7 @@
         <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
         <v>89</v>
@@ -25333,7 +25333,7 @@
         <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
         <v>89</v>
@@ -25350,7 +25350,7 @@
         <v>70</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
         <v>89</v>
@@ -25367,7 +25367,7 @@
         <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
         <v>89</v>
@@ -25381,10 +25381,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
         <v>72</v>
@@ -25398,10 +25398,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
         <v>72</v>
@@ -25415,10 +25415,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
@@ -25432,10 +25432,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
         <v>72</v>
@@ -25449,10 +25449,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
         <v>72</v>
@@ -25466,10 +25466,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
         <v>72</v>
@@ -25483,10 +25483,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C64" t="s">
         <v>72</v>
@@ -25500,10 +25500,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -25517,10 +25517,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
         <v>72</v>
@@ -25534,10 +25534,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
         <v>72</v>
@@ -25546,15 +25546,15 @@
         <v>84</v>
       </c>
       <c r="E67" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
         <v>72</v>
@@ -25568,10 +25568,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
         <v>72</v>
@@ -25585,10 +25585,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C70" t="s">
         <v>72</v>
@@ -25602,10 +25602,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
         <v>72</v>
@@ -25619,10 +25619,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
         <v>89</v>
@@ -25636,10 +25636,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C73" t="s">
         <v>89</v>
@@ -25653,10 +25653,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
         <v>89</v>
@@ -25670,10 +25670,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" t="s">
         <v>89</v>
@@ -25687,10 +25687,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" t="s">
         <v>89</v>
@@ -25704,10 +25704,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
         <v>89</v>
@@ -25721,10 +25721,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78" t="s">
         <v>89</v>
@@ -25738,10 +25738,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C79" t="s">
         <v>89</v>
@@ -25755,10 +25755,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" t="s">
         <v>89</v>
@@ -25772,10 +25772,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
         <v>89</v>
@@ -25784,15 +25784,15 @@
         <v>84</v>
       </c>
       <c r="E81" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -25806,10 +25806,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
         <v>89</v>
@@ -25823,10 +25823,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
         <v>89</v>
@@ -25840,10 +25840,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
         <v>89</v>
@@ -25860,7 +25860,7 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
         <v>72</v>
@@ -25877,7 +25877,7 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s">
         <v>72</v>
@@ -25894,7 +25894,7 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
         <v>72</v>
@@ -25911,7 +25911,7 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
         <v>72</v>
@@ -25928,7 +25928,7 @@
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
         <v>72</v>
@@ -25945,7 +25945,7 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
         <v>72</v>
@@ -25962,7 +25962,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C92" t="s">
         <v>72</v>
@@ -25979,7 +25979,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C93" t="s">
         <v>72</v>
@@ -25996,7 +25996,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
         <v>72</v>
@@ -26013,7 +26013,7 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C95" t="s">
         <v>72</v>
@@ -26030,7 +26030,7 @@
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C96" t="s">
         <v>72</v>
@@ -26047,7 +26047,7 @@
         <v>92</v>
       </c>
       <c r="B97" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C97" t="s">
         <v>72</v>
@@ -26064,7 +26064,7 @@
         <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C98" t="s">
         <v>72</v>
@@ -26081,7 +26081,7 @@
         <v>92</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
         <v>72</v>
@@ -26098,7 +26098,7 @@
         <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C100" t="s">
         <v>89</v>
@@ -26115,7 +26115,7 @@
         <v>92</v>
       </c>
       <c r="B101" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C101" t="s">
         <v>89</v>
@@ -26132,7 +26132,7 @@
         <v>92</v>
       </c>
       <c r="B102" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C102" t="s">
         <v>89</v>
@@ -26149,7 +26149,7 @@
         <v>92</v>
       </c>
       <c r="B103" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C103" t="s">
         <v>89</v>
@@ -26166,7 +26166,7 @@
         <v>92</v>
       </c>
       <c r="B104" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C104" t="s">
         <v>89</v>
@@ -26183,7 +26183,7 @@
         <v>92</v>
       </c>
       <c r="B105" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C105" t="s">
         <v>89</v>
@@ -26200,7 +26200,7 @@
         <v>92</v>
       </c>
       <c r="B106" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C106" t="s">
         <v>89</v>
@@ -26217,7 +26217,7 @@
         <v>92</v>
       </c>
       <c r="B107" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C107" t="s">
         <v>89</v>
@@ -26234,7 +26234,7 @@
         <v>92</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C108" t="s">
         <v>89</v>
@@ -26251,7 +26251,7 @@
         <v>92</v>
       </c>
       <c r="B109" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C109" t="s">
         <v>89</v>
@@ -26268,7 +26268,7 @@
         <v>92</v>
       </c>
       <c r="B110" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C110" t="s">
         <v>89</v>
@@ -26285,7 +26285,7 @@
         <v>92</v>
       </c>
       <c r="B111" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C111" t="s">
         <v>89</v>
@@ -26302,7 +26302,7 @@
         <v>92</v>
       </c>
       <c r="B112" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C112" t="s">
         <v>89</v>
@@ -26319,7 +26319,7 @@
         <v>92</v>
       </c>
       <c r="B113" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C113" t="s">
         <v>89</v>
@@ -26333,7 +26333,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B114" t="s">
         <v>90</v>
@@ -26350,7 +26350,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B115" t="s">
         <v>90</v>
@@ -26367,7 +26367,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B116" t="s">
         <v>90</v>
@@ -26384,7 +26384,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B117" t="s">
         <v>90</v>
@@ -26401,7 +26401,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B118" t="s">
         <v>90</v>
@@ -26418,7 +26418,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B119" t="s">
         <v>90</v>
@@ -26435,7 +26435,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B120" t="s">
         <v>90</v>
@@ -26452,7 +26452,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B121" t="s">
         <v>90</v>
@@ -26469,7 +26469,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B122" t="s">
         <v>90</v>
@@ -26486,7 +26486,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B123" t="s">
         <v>90</v>
@@ -26498,12 +26498,12 @@
         <v>84</v>
       </c>
       <c r="E123" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B124" t="s">
         <v>90</v>
@@ -26520,7 +26520,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B125" t="s">
         <v>90</v>
@@ -26537,7 +26537,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B126" t="s">
         <v>90</v>
@@ -26554,7 +26554,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B127" t="s">
         <v>90</v>
@@ -26571,7 +26571,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B128" t="s">
         <v>90</v>
@@ -26588,7 +26588,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B129" t="s">
         <v>90</v>
@@ -26605,7 +26605,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B130" t="s">
         <v>90</v>
@@ -26622,7 +26622,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B131" t="s">
         <v>90</v>
@@ -26639,7 +26639,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B132" t="s">
         <v>90</v>
@@ -26656,7 +26656,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B133" t="s">
         <v>90</v>
@@ -26673,7 +26673,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B134" t="s">
         <v>90</v>
@@ -26690,7 +26690,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B135" t="s">
         <v>90</v>
@@ -26707,7 +26707,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B136" t="s">
         <v>90</v>
@@ -26724,7 +26724,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B137" t="s">
         <v>90</v>
@@ -26736,12 +26736,12 @@
         <v>84</v>
       </c>
       <c r="E137" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B138" t="s">
         <v>90</v>
@@ -26758,7 +26758,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B139" t="s">
         <v>90</v>
@@ -26775,7 +26775,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B140" t="s">
         <v>90</v>
@@ -26792,7 +26792,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B141" t="s">
         <v>90</v>
@@ -26809,7 +26809,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B142" t="s">
         <v>91</v>
@@ -26826,7 +26826,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B143" t="s">
         <v>91</v>
@@ -26843,7 +26843,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B144" t="s">
         <v>91</v>
@@ -26860,7 +26860,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B145" t="s">
         <v>91</v>
@@ -26877,7 +26877,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B146" t="s">
         <v>91</v>
@@ -26894,7 +26894,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B147" t="s">
         <v>91</v>
@@ -26911,7 +26911,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B148" t="s">
         <v>91</v>
@@ -26928,7 +26928,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B149" t="s">
         <v>91</v>
@@ -26945,7 +26945,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B150" t="s">
         <v>91</v>
@@ -26962,7 +26962,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B151" t="s">
         <v>91</v>
@@ -26974,12 +26974,12 @@
         <v>84</v>
       </c>
       <c r="E151" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B152" t="s">
         <v>91</v>
@@ -26996,7 +26996,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B153" t="s">
         <v>91</v>
@@ -27013,7 +27013,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B154" t="s">
         <v>91</v>
@@ -27030,7 +27030,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B155" t="s">
         <v>91</v>
@@ -27047,7 +27047,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B156" t="s">
         <v>91</v>
@@ -27064,7 +27064,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B157" t="s">
         <v>91</v>
@@ -27081,7 +27081,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B158" t="s">
         <v>91</v>
@@ -27098,7 +27098,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B159" t="s">
         <v>91</v>
@@ -27115,7 +27115,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B160" t="s">
         <v>91</v>
@@ -27132,7 +27132,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B161" t="s">
         <v>91</v>
@@ -27149,7 +27149,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B162" t="s">
         <v>91</v>
@@ -27166,7 +27166,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B163" t="s">
         <v>91</v>
@@ -27183,7 +27183,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B164" t="s">
         <v>91</v>
@@ -27200,7 +27200,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B165" t="s">
         <v>91</v>
@@ -27212,12 +27212,12 @@
         <v>84</v>
       </c>
       <c r="E165" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B166" t="s">
         <v>91</v>
@@ -27234,7 +27234,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B167" t="s">
         <v>91</v>
@@ -27251,7 +27251,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B168" t="s">
         <v>91</v>
@@ -27268,7 +27268,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B169" t="s">
         <v>91</v>
@@ -27285,10 +27285,10 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B170" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C170" t="s">
         <v>72</v>
@@ -27302,10 +27302,10 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B171" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C171" t="s">
         <v>72</v>
@@ -27319,10 +27319,10 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B172" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C172" t="s">
         <v>72</v>
@@ -27336,10 +27336,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B173" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C173" t="s">
         <v>72</v>
@@ -27353,10 +27353,10 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B174" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C174" t="s">
         <v>72</v>
@@ -27370,10 +27370,10 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B175" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C175" t="s">
         <v>72</v>
@@ -27387,10 +27387,10 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B176" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C176" t="s">
         <v>72</v>
@@ -27404,10 +27404,10 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B177" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C177" t="s">
         <v>72</v>
@@ -27421,10 +27421,10 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B178" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C178" t="s">
         <v>72</v>
@@ -27438,10 +27438,10 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B179" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C179" t="s">
         <v>72</v>
@@ -27455,10 +27455,10 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B180" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C180" t="s">
         <v>72</v>
@@ -27472,10 +27472,10 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B181" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C181" t="s">
         <v>72</v>
@@ -27489,10 +27489,10 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B182" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C182" t="s">
         <v>72</v>
@@ -27506,10 +27506,10 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B183" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C183" t="s">
         <v>72</v>
@@ -27523,10 +27523,10 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B184" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C184" t="s">
         <v>89</v>
@@ -27540,10 +27540,10 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B185" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C185" t="s">
         <v>89</v>
@@ -27557,10 +27557,10 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B186" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C186" t="s">
         <v>89</v>
@@ -27574,10 +27574,10 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B187" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C187" t="s">
         <v>89</v>
@@ -27591,10 +27591,10 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B188" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C188" t="s">
         <v>89</v>
@@ -27608,10 +27608,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B189" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C189" t="s">
         <v>89</v>
@@ -27625,10 +27625,10 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B190" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C190" t="s">
         <v>89</v>
@@ -27642,10 +27642,10 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B191" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C191" t="s">
         <v>89</v>
@@ -27659,10 +27659,10 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B192" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C192" t="s">
         <v>89</v>
@@ -27676,10 +27676,10 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B193" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C193" t="s">
         <v>89</v>
@@ -27693,10 +27693,10 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B194" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C194" t="s">
         <v>89</v>
@@ -27710,10 +27710,10 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B195" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C195" t="s">
         <v>89</v>
@@ -27727,10 +27727,10 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B196" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C196" t="s">
         <v>89</v>
@@ -27744,10 +27744,10 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B197" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C197" t="s">
         <v>89</v>
@@ -27761,10 +27761,10 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B198" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C198" t="s">
         <v>72</v>
@@ -27778,10 +27778,10 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B199" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C199" t="s">
         <v>72</v>
@@ -27795,10 +27795,10 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B200" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C200" t="s">
         <v>72</v>
@@ -27812,10 +27812,10 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B201" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C201" t="s">
         <v>72</v>
@@ -27829,10 +27829,10 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B202" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C202" t="s">
         <v>72</v>
@@ -27846,10 +27846,10 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B203" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C203" t="s">
         <v>72</v>
@@ -27863,10 +27863,10 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B204" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C204" t="s">
         <v>72</v>
@@ -27880,10 +27880,10 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B205" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C205" t="s">
         <v>72</v>
@@ -27897,10 +27897,10 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B206" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C206" t="s">
         <v>72</v>
@@ -27914,10 +27914,10 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B207" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C207" t="s">
         <v>72</v>
@@ -27931,10 +27931,10 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B208" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C208" t="s">
         <v>72</v>
@@ -27948,10 +27948,10 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B209" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C209" t="s">
         <v>72</v>
@@ -27965,10 +27965,10 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B210" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C210" t="s">
         <v>72</v>
@@ -27982,10 +27982,10 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B211" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C211" t="s">
         <v>72</v>
@@ -27999,10 +27999,10 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B212" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C212" t="s">
         <v>89</v>
@@ -28016,10 +28016,10 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B213" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C213" t="s">
         <v>89</v>
@@ -28033,10 +28033,10 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B214" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C214" t="s">
         <v>89</v>
@@ -28050,10 +28050,10 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B215" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C215" t="s">
         <v>89</v>
@@ -28067,10 +28067,10 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B216" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C216" t="s">
         <v>89</v>
@@ -28084,10 +28084,10 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B217" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C217" t="s">
         <v>89</v>
@@ -28101,10 +28101,10 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B218" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C218" t="s">
         <v>89</v>
@@ -28118,10 +28118,10 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B219" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C219" t="s">
         <v>89</v>
@@ -28135,10 +28135,10 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B220" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C220" t="s">
         <v>89</v>
@@ -28152,10 +28152,10 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B221" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C221" t="s">
         <v>89</v>
@@ -28169,10 +28169,10 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B222" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C222" t="s">
         <v>89</v>
@@ -28186,10 +28186,10 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B223" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C223" t="s">
         <v>89</v>
@@ -28203,10 +28203,10 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B224" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C224" t="s">
         <v>89</v>
@@ -28220,10 +28220,10 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B225" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C225" t="s">
         <v>89</v>
@@ -28237,10 +28237,10 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B226" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C226" t="s">
         <v>72</v>
@@ -28254,10 +28254,10 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B227" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C227" t="s">
         <v>72</v>
@@ -28271,10 +28271,10 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B228" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C228" t="s">
         <v>72</v>
@@ -28288,10 +28288,10 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B229" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C229" t="s">
         <v>72</v>
@@ -28305,10 +28305,10 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B230" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C230" t="s">
         <v>72</v>
@@ -28322,10 +28322,10 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B231" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C231" t="s">
         <v>72</v>
@@ -28339,10 +28339,10 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B232" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C232" t="s">
         <v>72</v>
@@ -28356,10 +28356,10 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B233" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C233" t="s">
         <v>72</v>
@@ -28373,10 +28373,10 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B234" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C234" t="s">
         <v>72</v>
@@ -28390,10 +28390,10 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B235" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C235" t="s">
         <v>72</v>
@@ -28402,15 +28402,15 @@
         <v>84</v>
       </c>
       <c r="E235" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B236" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C236" t="s">
         <v>72</v>
@@ -28424,10 +28424,10 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B237" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C237" t="s">
         <v>72</v>
@@ -28441,10 +28441,10 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B238" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C238" t="s">
         <v>72</v>
@@ -28458,10 +28458,10 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B239" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C239" t="s">
         <v>72</v>
@@ -28475,10 +28475,10 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B240" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C240" t="s">
         <v>89</v>
@@ -28492,10 +28492,10 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B241" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C241" t="s">
         <v>89</v>
@@ -28509,10 +28509,10 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B242" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C242" t="s">
         <v>89</v>
@@ -28526,10 +28526,10 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B243" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C243" t="s">
         <v>89</v>
@@ -28543,10 +28543,10 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B244" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C244" t="s">
         <v>89</v>
@@ -28560,10 +28560,10 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B245" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C245" t="s">
         <v>89</v>
@@ -28577,10 +28577,10 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B246" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C246" t="s">
         <v>89</v>
@@ -28594,10 +28594,10 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B247" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C247" t="s">
         <v>89</v>
@@ -28611,10 +28611,10 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B248" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C248" t="s">
         <v>89</v>
@@ -28628,10 +28628,10 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B249" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C249" t="s">
         <v>89</v>
@@ -28640,15 +28640,15 @@
         <v>84</v>
       </c>
       <c r="E249" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B250" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C250" t="s">
         <v>89</v>
@@ -28662,10 +28662,10 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B251" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C251" t="s">
         <v>89</v>
@@ -28679,10 +28679,10 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B252" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C252" t="s">
         <v>89</v>
@@ -28696,10 +28696,10 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B253" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C253" t="s">
         <v>89</v>
@@ -28713,10 +28713,10 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B254" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C254" t="s">
         <v>72</v>
@@ -28730,10 +28730,10 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B255" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C255" t="s">
         <v>72</v>
@@ -28747,10 +28747,10 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B256" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C256" t="s">
         <v>72</v>
@@ -28764,10 +28764,10 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B257" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C257" t="s">
         <v>72</v>
@@ -28781,10 +28781,10 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B258" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C258" t="s">
         <v>72</v>
@@ -28798,10 +28798,10 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B259" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C259" t="s">
         <v>72</v>
@@ -28815,10 +28815,10 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B260" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C260" t="s">
         <v>72</v>
@@ -28832,10 +28832,10 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B261" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C261" t="s">
         <v>72</v>
@@ -28849,10 +28849,10 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B262" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C262" t="s">
         <v>72</v>
@@ -28866,10 +28866,10 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B263" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C263" t="s">
         <v>72</v>
@@ -28878,15 +28878,15 @@
         <v>84</v>
       </c>
       <c r="E263" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B264" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C264" t="s">
         <v>72</v>
@@ -28900,10 +28900,10 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B265" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C265" t="s">
         <v>72</v>
@@ -28917,10 +28917,10 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B266" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C266" t="s">
         <v>72</v>
@@ -28934,10 +28934,10 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B267" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C267" t="s">
         <v>72</v>
@@ -28951,10 +28951,10 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B268" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C268" t="s">
         <v>89</v>
@@ -28968,10 +28968,10 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B269" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C269" t="s">
         <v>89</v>
@@ -28985,10 +28985,10 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B270" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C270" t="s">
         <v>89</v>
@@ -29002,10 +29002,10 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B271" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C271" t="s">
         <v>89</v>
@@ -29019,10 +29019,10 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B272" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C272" t="s">
         <v>89</v>
@@ -29036,10 +29036,10 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B273" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C273" t="s">
         <v>89</v>
@@ -29053,10 +29053,10 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B274" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C274" t="s">
         <v>89</v>
@@ -29070,10 +29070,10 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B275" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C275" t="s">
         <v>89</v>
@@ -29087,10 +29087,10 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B276" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C276" t="s">
         <v>89</v>
@@ -29104,10 +29104,10 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B277" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C277" t="s">
         <v>89</v>
@@ -29116,15 +29116,15 @@
         <v>84</v>
       </c>
       <c r="E277" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B278" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C278" t="s">
         <v>89</v>
@@ -29138,10 +29138,10 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B279" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C279" t="s">
         <v>89</v>
@@ -29155,10 +29155,10 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B280" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C280" t="s">
         <v>89</v>
@@ -29172,10 +29172,10 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B281" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C281" t="s">
         <v>89</v>
@@ -29189,7 +29189,7 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B282" t="s">
         <v>90</v>
@@ -29206,7 +29206,7 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B283" t="s">
         <v>90</v>
@@ -29223,7 +29223,7 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B284" t="s">
         <v>90</v>
@@ -29240,7 +29240,7 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B285" t="s">
         <v>90</v>
@@ -29257,7 +29257,7 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B286" t="s">
         <v>90</v>
@@ -29274,7 +29274,7 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B287" t="s">
         <v>90</v>
@@ -29291,7 +29291,7 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B288" t="s">
         <v>90</v>
@@ -29308,7 +29308,7 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B289" t="s">
         <v>90</v>
@@ -29325,7 +29325,7 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B290" t="s">
         <v>90</v>
@@ -29342,7 +29342,7 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B291" t="s">
         <v>90</v>
@@ -29354,12 +29354,12 @@
         <v>84</v>
       </c>
       <c r="E291" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B292" t="s">
         <v>90</v>
@@ -29376,7 +29376,7 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B293" t="s">
         <v>90</v>
@@ -29393,7 +29393,7 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B294" t="s">
         <v>90</v>
@@ -29410,7 +29410,7 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B295" t="s">
         <v>90</v>
@@ -29427,7 +29427,7 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B296" t="s">
         <v>90</v>
@@ -29444,7 +29444,7 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B297" t="s">
         <v>90</v>
@@ -29461,7 +29461,7 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B298" t="s">
         <v>90</v>
@@ -29478,7 +29478,7 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B299" t="s">
         <v>90</v>
@@ -29495,7 +29495,7 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B300" t="s">
         <v>90</v>
@@ -29512,7 +29512,7 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B301" t="s">
         <v>90</v>
@@ -29529,7 +29529,7 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B302" t="s">
         <v>90</v>
@@ -29546,7 +29546,7 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B303" t="s">
         <v>90</v>
@@ -29563,7 +29563,7 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B304" t="s">
         <v>90</v>
@@ -29580,7 +29580,7 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B305" t="s">
         <v>90</v>
@@ -29592,12 +29592,12 @@
         <v>84</v>
       </c>
       <c r="E305" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B306" t="s">
         <v>90</v>
@@ -29614,7 +29614,7 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B307" t="s">
         <v>90</v>
@@ -29631,7 +29631,7 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B308" t="s">
         <v>90</v>
@@ -29648,7 +29648,7 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B309" t="s">
         <v>90</v>
@@ -29665,7 +29665,7 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B310" t="s">
         <v>91</v>
@@ -29682,7 +29682,7 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B311" t="s">
         <v>91</v>
@@ -29699,7 +29699,7 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B312" t="s">
         <v>91</v>
@@ -29716,7 +29716,7 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B313" t="s">
         <v>91</v>
@@ -29733,7 +29733,7 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B314" t="s">
         <v>91</v>
@@ -29750,7 +29750,7 @@
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B315" t="s">
         <v>91</v>
@@ -29767,7 +29767,7 @@
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B316" t="s">
         <v>91</v>
@@ -29784,7 +29784,7 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B317" t="s">
         <v>91</v>
@@ -29801,7 +29801,7 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B318" t="s">
         <v>91</v>
@@ -29818,7 +29818,7 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B319" t="s">
         <v>91</v>
@@ -29830,12 +29830,12 @@
         <v>84</v>
       </c>
       <c r="E319" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B320" t="s">
         <v>91</v>
@@ -29852,7 +29852,7 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B321" t="s">
         <v>91</v>
@@ -29869,7 +29869,7 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B322" t="s">
         <v>91</v>
@@ -29886,7 +29886,7 @@
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B323" t="s">
         <v>91</v>
@@ -29903,7 +29903,7 @@
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B324" t="s">
         <v>91</v>
@@ -29920,7 +29920,7 @@
     </row>
     <row r="325" spans="1:5">
       <c r="A325" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B325" t="s">
         <v>91</v>
@@ -29937,7 +29937,7 @@
     </row>
     <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B326" t="s">
         <v>91</v>
@@ -29954,7 +29954,7 @@
     </row>
     <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B327" t="s">
         <v>91</v>
@@ -29971,7 +29971,7 @@
     </row>
     <row r="328" spans="1:5">
       <c r="A328" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B328" t="s">
         <v>91</v>
@@ -29988,7 +29988,7 @@
     </row>
     <row r="329" spans="1:5">
       <c r="A329" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B329" t="s">
         <v>91</v>
@@ -30005,7 +30005,7 @@
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B330" t="s">
         <v>91</v>
@@ -30022,7 +30022,7 @@
     </row>
     <row r="331" spans="1:5">
       <c r="A331" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B331" t="s">
         <v>91</v>
@@ -30039,7 +30039,7 @@
     </row>
     <row r="332" spans="1:5">
       <c r="A332" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B332" t="s">
         <v>91</v>
@@ -30056,7 +30056,7 @@
     </row>
     <row r="333" spans="1:5">
       <c r="A333" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B333" t="s">
         <v>91</v>
@@ -30068,12 +30068,12 @@
         <v>84</v>
       </c>
       <c r="E333" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B334" t="s">
         <v>91</v>
@@ -30090,7 +30090,7 @@
     </row>
     <row r="335" spans="1:5">
       <c r="A335" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B335" t="s">
         <v>91</v>
@@ -30107,7 +30107,7 @@
     </row>
     <row r="336" spans="1:5">
       <c r="A336" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B336" t="s">
         <v>91</v>
@@ -30124,7 +30124,7 @@
     </row>
     <row r="337" spans="1:5">
       <c r="A337" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B337" t="s">
         <v>91</v>
@@ -30141,10 +30141,10 @@
     </row>
     <row r="338" spans="1:5">
       <c r="A338" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B338" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C338" t="s">
         <v>72</v>
@@ -30158,10 +30158,10 @@
     </row>
     <row r="339" spans="1:5">
       <c r="A339" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B339" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C339" t="s">
         <v>72</v>
@@ -30175,10 +30175,10 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B340" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C340" t="s">
         <v>72</v>
@@ -30192,10 +30192,10 @@
     </row>
     <row r="341" spans="1:5">
       <c r="A341" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B341" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C341" t="s">
         <v>72</v>
@@ -30209,10 +30209,10 @@
     </row>
     <row r="342" spans="1:5">
       <c r="A342" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B342" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C342" t="s">
         <v>72</v>
@@ -30226,10 +30226,10 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B343" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C343" t="s">
         <v>72</v>
@@ -30243,10 +30243,10 @@
     </row>
     <row r="344" spans="1:5">
       <c r="A344" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B344" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C344" t="s">
         <v>72</v>
@@ -30260,10 +30260,10 @@
     </row>
     <row r="345" spans="1:5">
       <c r="A345" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B345" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C345" t="s">
         <v>72</v>
@@ -30277,10 +30277,10 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B346" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C346" t="s">
         <v>72</v>
@@ -30294,10 +30294,10 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B347" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C347" t="s">
         <v>72</v>
@@ -30306,15 +30306,15 @@
         <v>84</v>
       </c>
       <c r="E347" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B348" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C348" t="s">
         <v>72</v>
@@ -30328,10 +30328,10 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B349" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C349" t="s">
         <v>72</v>
@@ -30345,10 +30345,10 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B350" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C350" t="s">
         <v>72</v>
@@ -30362,10 +30362,10 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B351" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C351" t="s">
         <v>72</v>
@@ -30379,10 +30379,10 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B352" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C352" t="s">
         <v>89</v>
@@ -30396,10 +30396,10 @@
     </row>
     <row r="353" spans="1:5">
       <c r="A353" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B353" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C353" t="s">
         <v>89</v>
@@ -30413,10 +30413,10 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B354" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C354" t="s">
         <v>89</v>
@@ -30430,10 +30430,10 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B355" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C355" t="s">
         <v>89</v>
@@ -30447,10 +30447,10 @@
     </row>
     <row r="356" spans="1:5">
       <c r="A356" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B356" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C356" t="s">
         <v>89</v>
@@ -30464,10 +30464,10 @@
     </row>
     <row r="357" spans="1:5">
       <c r="A357" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B357" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C357" t="s">
         <v>89</v>
@@ -30481,10 +30481,10 @@
     </row>
     <row r="358" spans="1:5">
       <c r="A358" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B358" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C358" t="s">
         <v>89</v>
@@ -30498,10 +30498,10 @@
     </row>
     <row r="359" spans="1:5">
       <c r="A359" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B359" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C359" t="s">
         <v>89</v>
@@ -30515,10 +30515,10 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B360" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C360" t="s">
         <v>89</v>
@@ -30532,10 +30532,10 @@
     </row>
     <row r="361" spans="1:5">
       <c r="A361" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B361" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C361" t="s">
         <v>89</v>
@@ -30544,15 +30544,15 @@
         <v>84</v>
       </c>
       <c r="E361" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B362" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C362" t="s">
         <v>89</v>
@@ -30566,10 +30566,10 @@
     </row>
     <row r="363" spans="1:5">
       <c r="A363" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B363" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C363" t="s">
         <v>89</v>
@@ -30583,10 +30583,10 @@
     </row>
     <row r="364" spans="1:5">
       <c r="A364" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B364" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C364" t="s">
         <v>89</v>
@@ -30600,10 +30600,10 @@
     </row>
     <row r="365" spans="1:5">
       <c r="A365" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B365" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C365" t="s">
         <v>89</v>
@@ -30617,10 +30617,10 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B366" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C366" t="s">
         <v>72</v>
@@ -30634,10 +30634,10 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B367" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C367" t="s">
         <v>72</v>
@@ -30651,10 +30651,10 @@
     </row>
     <row r="368" spans="1:5">
       <c r="A368" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B368" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C368" t="s">
         <v>72</v>
@@ -30668,10 +30668,10 @@
     </row>
     <row r="369" spans="1:5">
       <c r="A369" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B369" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C369" t="s">
         <v>72</v>
@@ -30685,10 +30685,10 @@
     </row>
     <row r="370" spans="1:5">
       <c r="A370" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B370" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C370" t="s">
         <v>72</v>
@@ -30702,10 +30702,10 @@
     </row>
     <row r="371" spans="1:5">
       <c r="A371" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B371" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C371" t="s">
         <v>72</v>
@@ -30719,10 +30719,10 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B372" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C372" t="s">
         <v>72</v>
@@ -30736,10 +30736,10 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B373" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C373" t="s">
         <v>72</v>
@@ -30753,10 +30753,10 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B374" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C374" t="s">
         <v>72</v>
@@ -30770,10 +30770,10 @@
     </row>
     <row r="375" spans="1:5">
       <c r="A375" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B375" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C375" t="s">
         <v>72</v>
@@ -30782,15 +30782,15 @@
         <v>84</v>
       </c>
       <c r="E375" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B376" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C376" t="s">
         <v>72</v>
@@ -30804,10 +30804,10 @@
     </row>
     <row r="377" spans="1:5">
       <c r="A377" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B377" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C377" t="s">
         <v>72</v>
@@ -30821,10 +30821,10 @@
     </row>
     <row r="378" spans="1:5">
       <c r="A378" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B378" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C378" t="s">
         <v>72</v>
@@ -30838,10 +30838,10 @@
     </row>
     <row r="379" spans="1:5">
       <c r="A379" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B379" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C379" t="s">
         <v>72</v>
@@ -30855,10 +30855,10 @@
     </row>
     <row r="380" spans="1:5">
       <c r="A380" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B380" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C380" t="s">
         <v>89</v>
@@ -30872,10 +30872,10 @@
     </row>
     <row r="381" spans="1:5">
       <c r="A381" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B381" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C381" t="s">
         <v>89</v>
@@ -30889,10 +30889,10 @@
     </row>
     <row r="382" spans="1:5">
       <c r="A382" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B382" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C382" t="s">
         <v>89</v>
@@ -30906,10 +30906,10 @@
     </row>
     <row r="383" spans="1:5">
       <c r="A383" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B383" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C383" t="s">
         <v>89</v>
@@ -30923,10 +30923,10 @@
     </row>
     <row r="384" spans="1:5">
       <c r="A384" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B384" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C384" t="s">
         <v>89</v>
@@ -30940,10 +30940,10 @@
     </row>
     <row r="385" spans="1:5">
       <c r="A385" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B385" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C385" t="s">
         <v>89</v>
@@ -30957,10 +30957,10 @@
     </row>
     <row r="386" spans="1:5">
       <c r="A386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B386" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C386" t="s">
         <v>89</v>
@@ -30974,10 +30974,10 @@
     </row>
     <row r="387" spans="1:5">
       <c r="A387" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B387" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C387" t="s">
         <v>89</v>
@@ -30991,10 +30991,10 @@
     </row>
     <row r="388" spans="1:5">
       <c r="A388" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B388" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C388" t="s">
         <v>89</v>
@@ -31008,10 +31008,10 @@
     </row>
     <row r="389" spans="1:5">
       <c r="A389" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B389" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C389" t="s">
         <v>89</v>
@@ -31020,15 +31020,15 @@
         <v>84</v>
       </c>
       <c r="E389" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B390" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C390" t="s">
         <v>89</v>
@@ -31042,10 +31042,10 @@
     </row>
     <row r="391" spans="1:5">
       <c r="A391" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B391" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C391" t="s">
         <v>89</v>
@@ -31059,10 +31059,10 @@
     </row>
     <row r="392" spans="1:5">
       <c r="A392" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B392" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C392" t="s">
         <v>89</v>
@@ -31076,10 +31076,10 @@
     </row>
     <row r="393" spans="1:5">
       <c r="A393" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B393" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C393" t="s">
         <v>89</v>
@@ -31093,10 +31093,10 @@
     </row>
     <row r="394" spans="1:5">
       <c r="A394" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B394" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C394" t="s">
         <v>72</v>
@@ -31110,10 +31110,10 @@
     </row>
     <row r="395" spans="1:5">
       <c r="A395" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B395" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C395" t="s">
         <v>72</v>
@@ -31127,10 +31127,10 @@
     </row>
     <row r="396" spans="1:5">
       <c r="A396" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B396" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C396" t="s">
         <v>72</v>
@@ -31144,10 +31144,10 @@
     </row>
     <row r="397" spans="1:5">
       <c r="A397" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B397" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C397" t="s">
         <v>72</v>
@@ -31161,10 +31161,10 @@
     </row>
     <row r="398" spans="1:5">
       <c r="A398" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B398" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C398" t="s">
         <v>72</v>
@@ -31178,10 +31178,10 @@
     </row>
     <row r="399" spans="1:5">
       <c r="A399" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B399" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C399" t="s">
         <v>72</v>
@@ -31195,10 +31195,10 @@
     </row>
     <row r="400" spans="1:5">
       <c r="A400" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B400" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C400" t="s">
         <v>72</v>
@@ -31212,10 +31212,10 @@
     </row>
     <row r="401" spans="1:5">
       <c r="A401" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B401" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C401" t="s">
         <v>72</v>
@@ -31229,10 +31229,10 @@
     </row>
     <row r="402" spans="1:5">
       <c r="A402" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B402" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C402" t="s">
         <v>72</v>
@@ -31246,10 +31246,10 @@
     </row>
     <row r="403" spans="1:5">
       <c r="A403" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B403" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C403" t="s">
         <v>72</v>
@@ -31258,15 +31258,15 @@
         <v>84</v>
       </c>
       <c r="E403" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B404" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C404" t="s">
         <v>72</v>
@@ -31280,10 +31280,10 @@
     </row>
     <row r="405" spans="1:5">
       <c r="A405" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B405" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C405" t="s">
         <v>72</v>
@@ -31297,10 +31297,10 @@
     </row>
     <row r="406" spans="1:5">
       <c r="A406" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B406" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C406" t="s">
         <v>72</v>
@@ -31314,10 +31314,10 @@
     </row>
     <row r="407" spans="1:5">
       <c r="A407" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B407" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C407" t="s">
         <v>72</v>
@@ -31331,10 +31331,10 @@
     </row>
     <row r="408" spans="1:5">
       <c r="A408" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B408" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C408" t="s">
         <v>89</v>
@@ -31348,10 +31348,10 @@
     </row>
     <row r="409" spans="1:5">
       <c r="A409" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B409" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C409" t="s">
         <v>89</v>
@@ -31365,10 +31365,10 @@
     </row>
     <row r="410" spans="1:5">
       <c r="A410" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B410" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C410" t="s">
         <v>89</v>
@@ -31382,10 +31382,10 @@
     </row>
     <row r="411" spans="1:5">
       <c r="A411" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B411" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C411" t="s">
         <v>89</v>
@@ -31399,10 +31399,10 @@
     </row>
     <row r="412" spans="1:5">
       <c r="A412" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B412" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C412" t="s">
         <v>89</v>
@@ -31416,10 +31416,10 @@
     </row>
     <row r="413" spans="1:5">
       <c r="A413" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B413" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C413" t="s">
         <v>89</v>
@@ -31433,10 +31433,10 @@
     </row>
     <row r="414" spans="1:5">
       <c r="A414" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B414" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C414" t="s">
         <v>89</v>
@@ -31450,10 +31450,10 @@
     </row>
     <row r="415" spans="1:5">
       <c r="A415" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B415" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C415" t="s">
         <v>89</v>
@@ -31467,10 +31467,10 @@
     </row>
     <row r="416" spans="1:5">
       <c r="A416" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B416" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C416" t="s">
         <v>89</v>
@@ -31484,10 +31484,10 @@
     </row>
     <row r="417" spans="1:5">
       <c r="A417" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B417" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C417" t="s">
         <v>89</v>
@@ -31496,15 +31496,15 @@
         <v>84</v>
       </c>
       <c r="E417" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B418" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C418" t="s">
         <v>89</v>
@@ -31518,10 +31518,10 @@
     </row>
     <row r="419" spans="1:5">
       <c r="A419" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B419" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C419" t="s">
         <v>89</v>
@@ -31535,10 +31535,10 @@
     </row>
     <row r="420" spans="1:5">
       <c r="A420" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B420" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C420" t="s">
         <v>89</v>
@@ -31552,10 +31552,10 @@
     </row>
     <row r="421" spans="1:5">
       <c r="A421" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B421" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C421" t="s">
         <v>89</v>
@@ -31569,10 +31569,10 @@
     </row>
     <row r="422" spans="1:5">
       <c r="A422" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B422" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C422" t="s">
         <v>72</v>
@@ -31586,10 +31586,10 @@
     </row>
     <row r="423" spans="1:5">
       <c r="A423" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B423" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C423" t="s">
         <v>72</v>
@@ -31603,10 +31603,10 @@
     </row>
     <row r="424" spans="1:5">
       <c r="A424" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B424" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C424" t="s">
         <v>72</v>
@@ -31620,10 +31620,10 @@
     </row>
     <row r="425" spans="1:5">
       <c r="A425" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B425" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C425" t="s">
         <v>72</v>
@@ -31637,10 +31637,10 @@
     </row>
     <row r="426" spans="1:5">
       <c r="A426" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B426" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C426" t="s">
         <v>72</v>
@@ -31654,10 +31654,10 @@
     </row>
     <row r="427" spans="1:5">
       <c r="A427" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B427" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C427" t="s">
         <v>72</v>
@@ -31671,10 +31671,10 @@
     </row>
     <row r="428" spans="1:5">
       <c r="A428" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B428" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C428" t="s">
         <v>72</v>
@@ -31688,10 +31688,10 @@
     </row>
     <row r="429" spans="1:5">
       <c r="A429" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B429" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C429" t="s">
         <v>72</v>
@@ -31705,10 +31705,10 @@
     </row>
     <row r="430" spans="1:5">
       <c r="A430" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B430" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C430" t="s">
         <v>72</v>
@@ -31722,10 +31722,10 @@
     </row>
     <row r="431" spans="1:5">
       <c r="A431" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B431" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C431" t="s">
         <v>72</v>
@@ -31734,15 +31734,15 @@
         <v>84</v>
       </c>
       <c r="E431" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B432" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C432" t="s">
         <v>72</v>
@@ -31756,10 +31756,10 @@
     </row>
     <row r="433" spans="1:5">
       <c r="A433" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B433" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C433" t="s">
         <v>72</v>
@@ -31773,10 +31773,10 @@
     </row>
     <row r="434" spans="1:5">
       <c r="A434" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B434" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C434" t="s">
         <v>72</v>
@@ -31790,10 +31790,10 @@
     </row>
     <row r="435" spans="1:5">
       <c r="A435" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B435" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C435" t="s">
         <v>72</v>
@@ -31807,10 +31807,10 @@
     </row>
     <row r="436" spans="1:5">
       <c r="A436" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B436" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C436" t="s">
         <v>89</v>
@@ -31824,10 +31824,10 @@
     </row>
     <row r="437" spans="1:5">
       <c r="A437" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B437" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C437" t="s">
         <v>89</v>
@@ -31841,10 +31841,10 @@
     </row>
     <row r="438" spans="1:5">
       <c r="A438" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B438" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C438" t="s">
         <v>89</v>
@@ -31858,10 +31858,10 @@
     </row>
     <row r="439" spans="1:5">
       <c r="A439" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B439" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C439" t="s">
         <v>89</v>
@@ -31875,10 +31875,10 @@
     </row>
     <row r="440" spans="1:5">
       <c r="A440" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B440" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C440" t="s">
         <v>89</v>
@@ -31892,10 +31892,10 @@
     </row>
     <row r="441" spans="1:5">
       <c r="A441" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B441" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C441" t="s">
         <v>89</v>
@@ -31909,10 +31909,10 @@
     </row>
     <row r="442" spans="1:5">
       <c r="A442" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B442" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C442" t="s">
         <v>89</v>
@@ -31926,10 +31926,10 @@
     </row>
     <row r="443" spans="1:5">
       <c r="A443" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B443" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C443" t="s">
         <v>89</v>
@@ -31943,10 +31943,10 @@
     </row>
     <row r="444" spans="1:5">
       <c r="A444" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B444" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C444" t="s">
         <v>89</v>
@@ -31960,10 +31960,10 @@
     </row>
     <row r="445" spans="1:5">
       <c r="A445" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B445" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C445" t="s">
         <v>89</v>
@@ -31972,15 +31972,15 @@
         <v>84</v>
       </c>
       <c r="E445" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B446" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C446" t="s">
         <v>89</v>
@@ -31994,10 +31994,10 @@
     </row>
     <row r="447" spans="1:5">
       <c r="A447" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B447" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C447" t="s">
         <v>89</v>
@@ -32011,10 +32011,10 @@
     </row>
     <row r="448" spans="1:5">
       <c r="A448" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B448" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C448" t="s">
         <v>89</v>
@@ -32028,10 +32028,10 @@
     </row>
     <row r="449" spans="1:5">
       <c r="A449" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B449" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C449" t="s">
         <v>89</v>
@@ -32045,7 +32045,7 @@
     </row>
     <row r="450" spans="1:5">
       <c r="A450" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B450" t="s">
         <v>90</v>
@@ -32062,7 +32062,7 @@
     </row>
     <row r="451" spans="1:5">
       <c r="A451" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B451" t="s">
         <v>90</v>
@@ -32079,7 +32079,7 @@
     </row>
     <row r="452" spans="1:5">
       <c r="A452" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B452" t="s">
         <v>90</v>
@@ -32096,7 +32096,7 @@
     </row>
     <row r="453" spans="1:5">
       <c r="A453" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B453" t="s">
         <v>90</v>
@@ -32113,7 +32113,7 @@
     </row>
     <row r="454" spans="1:5">
       <c r="A454" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B454" t="s">
         <v>90</v>
@@ -32130,7 +32130,7 @@
     </row>
     <row r="455" spans="1:5">
       <c r="A455" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B455" t="s">
         <v>90</v>
@@ -32147,7 +32147,7 @@
     </row>
     <row r="456" spans="1:5">
       <c r="A456" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B456" t="s">
         <v>90</v>
@@ -32164,7 +32164,7 @@
     </row>
     <row r="457" spans="1:5">
       <c r="A457" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B457" t="s">
         <v>90</v>
@@ -32181,7 +32181,7 @@
     </row>
     <row r="458" spans="1:5">
       <c r="A458" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B458" t="s">
         <v>90</v>
@@ -32198,7 +32198,7 @@
     </row>
     <row r="459" spans="1:5">
       <c r="A459" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B459" t="s">
         <v>90</v>
@@ -32215,7 +32215,7 @@
     </row>
     <row r="460" spans="1:5">
       <c r="A460" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B460" t="s">
         <v>90</v>
@@ -32232,7 +32232,7 @@
     </row>
     <row r="461" spans="1:5">
       <c r="A461" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B461" t="s">
         <v>90</v>
@@ -32249,7 +32249,7 @@
     </row>
     <row r="462" spans="1:5">
       <c r="A462" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B462" t="s">
         <v>90</v>
@@ -32266,7 +32266,7 @@
     </row>
     <row r="463" spans="1:5">
       <c r="A463" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B463" t="s">
         <v>90</v>
@@ -32283,7 +32283,7 @@
     </row>
     <row r="464" spans="1:5">
       <c r="A464" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B464" t="s">
         <v>90</v>
@@ -32300,7 +32300,7 @@
     </row>
     <row r="465" spans="1:5">
       <c r="A465" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B465" t="s">
         <v>90</v>
@@ -32317,7 +32317,7 @@
     </row>
     <row r="466" spans="1:5">
       <c r="A466" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B466" t="s">
         <v>90</v>
@@ -32334,7 +32334,7 @@
     </row>
     <row r="467" spans="1:5">
       <c r="A467" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B467" t="s">
         <v>90</v>
@@ -32351,7 +32351,7 @@
     </row>
     <row r="468" spans="1:5">
       <c r="A468" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B468" t="s">
         <v>90</v>
@@ -32368,7 +32368,7 @@
     </row>
     <row r="469" spans="1:5">
       <c r="A469" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B469" t="s">
         <v>90</v>
@@ -32385,7 +32385,7 @@
     </row>
     <row r="470" spans="1:5">
       <c r="A470" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B470" t="s">
         <v>90</v>
@@ -32402,7 +32402,7 @@
     </row>
     <row r="471" spans="1:5">
       <c r="A471" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B471" t="s">
         <v>90</v>
@@ -32419,7 +32419,7 @@
     </row>
     <row r="472" spans="1:5">
       <c r="A472" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B472" t="s">
         <v>90</v>
@@ -32436,7 +32436,7 @@
     </row>
     <row r="473" spans="1:5">
       <c r="A473" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B473" t="s">
         <v>90</v>
@@ -32453,7 +32453,7 @@
     </row>
     <row r="474" spans="1:5">
       <c r="A474" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B474" t="s">
         <v>90</v>
@@ -32470,7 +32470,7 @@
     </row>
     <row r="475" spans="1:5">
       <c r="A475" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B475" t="s">
         <v>90</v>
@@ -32487,7 +32487,7 @@
     </row>
     <row r="476" spans="1:5">
       <c r="A476" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B476" t="s">
         <v>90</v>
@@ -32504,7 +32504,7 @@
     </row>
     <row r="477" spans="1:5">
       <c r="A477" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B477" t="s">
         <v>90</v>
@@ -32521,7 +32521,7 @@
     </row>
     <row r="478" spans="1:5">
       <c r="A478" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B478" t="s">
         <v>91</v>
@@ -32538,7 +32538,7 @@
     </row>
     <row r="479" spans="1:5">
       <c r="A479" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B479" t="s">
         <v>91</v>
@@ -32555,7 +32555,7 @@
     </row>
     <row r="480" spans="1:5">
       <c r="A480" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B480" t="s">
         <v>91</v>
@@ -32572,7 +32572,7 @@
     </row>
     <row r="481" spans="1:5">
       <c r="A481" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B481" t="s">
         <v>91</v>
@@ -32589,7 +32589,7 @@
     </row>
     <row r="482" spans="1:5">
       <c r="A482" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B482" t="s">
         <v>91</v>
@@ -32606,7 +32606,7 @@
     </row>
     <row r="483" spans="1:5">
       <c r="A483" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B483" t="s">
         <v>91</v>
@@ -32623,7 +32623,7 @@
     </row>
     <row r="484" spans="1:5">
       <c r="A484" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B484" t="s">
         <v>91</v>
@@ -32640,7 +32640,7 @@
     </row>
     <row r="485" spans="1:5">
       <c r="A485" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B485" t="s">
         <v>91</v>
@@ -32657,7 +32657,7 @@
     </row>
     <row r="486" spans="1:5">
       <c r="A486" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B486" t="s">
         <v>91</v>
@@ -32674,7 +32674,7 @@
     </row>
     <row r="487" spans="1:5">
       <c r="A487" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B487" t="s">
         <v>91</v>
@@ -32691,7 +32691,7 @@
     </row>
     <row r="488" spans="1:5">
       <c r="A488" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B488" t="s">
         <v>91</v>
@@ -32708,7 +32708,7 @@
     </row>
     <row r="489" spans="1:5">
       <c r="A489" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B489" t="s">
         <v>91</v>
@@ -32725,7 +32725,7 @@
     </row>
     <row r="490" spans="1:5">
       <c r="A490" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B490" t="s">
         <v>91</v>
@@ -32742,7 +32742,7 @@
     </row>
     <row r="491" spans="1:5">
       <c r="A491" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B491" t="s">
         <v>91</v>
@@ -32759,7 +32759,7 @@
     </row>
     <row r="492" spans="1:5">
       <c r="A492" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B492" t="s">
         <v>91</v>
@@ -32776,7 +32776,7 @@
     </row>
     <row r="493" spans="1:5">
       <c r="A493" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B493" t="s">
         <v>91</v>
@@ -32793,7 +32793,7 @@
     </row>
     <row r="494" spans="1:5">
       <c r="A494" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B494" t="s">
         <v>91</v>
@@ -32810,7 +32810,7 @@
     </row>
     <row r="495" spans="1:5">
       <c r="A495" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B495" t="s">
         <v>91</v>
@@ -32827,7 +32827,7 @@
     </row>
     <row r="496" spans="1:5">
       <c r="A496" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B496" t="s">
         <v>91</v>
@@ -32844,7 +32844,7 @@
     </row>
     <row r="497" spans="1:5">
       <c r="A497" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B497" t="s">
         <v>91</v>
@@ -32861,7 +32861,7 @@
     </row>
     <row r="498" spans="1:5">
       <c r="A498" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B498" t="s">
         <v>91</v>
@@ -32878,7 +32878,7 @@
     </row>
     <row r="499" spans="1:5">
       <c r="A499" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B499" t="s">
         <v>91</v>
@@ -32895,7 +32895,7 @@
     </row>
     <row r="500" spans="1:5">
       <c r="A500" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B500" t="s">
         <v>91</v>
@@ -32912,7 +32912,7 @@
     </row>
     <row r="501" spans="1:5">
       <c r="A501" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B501" t="s">
         <v>91</v>
@@ -32929,7 +32929,7 @@
     </row>
     <row r="502" spans="1:5">
       <c r="A502" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B502" t="s">
         <v>91</v>
@@ -32946,7 +32946,7 @@
     </row>
     <row r="503" spans="1:5">
       <c r="A503" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B503" t="s">
         <v>91</v>
@@ -32963,7 +32963,7 @@
     </row>
     <row r="504" spans="1:5">
       <c r="A504" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B504" t="s">
         <v>91</v>
@@ -32980,7 +32980,7 @@
     </row>
     <row r="505" spans="1:5">
       <c r="A505" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B505" t="s">
         <v>91</v>
@@ -32997,10 +32997,10 @@
     </row>
     <row r="506" spans="1:5">
       <c r="A506" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B506" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C506" t="s">
         <v>72</v>
@@ -33014,10 +33014,10 @@
     </row>
     <row r="507" spans="1:5">
       <c r="A507" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B507" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C507" t="s">
         <v>72</v>
@@ -33031,10 +33031,10 @@
     </row>
     <row r="508" spans="1:5">
       <c r="A508" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B508" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C508" t="s">
         <v>72</v>
@@ -33048,10 +33048,10 @@
     </row>
     <row r="509" spans="1:5">
       <c r="A509" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B509" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C509" t="s">
         <v>72</v>
@@ -33065,10 +33065,10 @@
     </row>
     <row r="510" spans="1:5">
       <c r="A510" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B510" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C510" t="s">
         <v>72</v>
@@ -33082,10 +33082,10 @@
     </row>
     <row r="511" spans="1:5">
       <c r="A511" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B511" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C511" t="s">
         <v>72</v>
@@ -33099,10 +33099,10 @@
     </row>
     <row r="512" spans="1:5">
       <c r="A512" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B512" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C512" t="s">
         <v>72</v>
@@ -33116,10 +33116,10 @@
     </row>
     <row r="513" spans="1:5">
       <c r="A513" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B513" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C513" t="s">
         <v>72</v>
@@ -33133,10 +33133,10 @@
     </row>
     <row r="514" spans="1:5">
       <c r="A514" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B514" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C514" t="s">
         <v>72</v>
@@ -33150,10 +33150,10 @@
     </row>
     <row r="515" spans="1:5">
       <c r="A515" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B515" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C515" t="s">
         <v>72</v>
@@ -33162,15 +33162,15 @@
         <v>84</v>
       </c>
       <c r="E515" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="516" spans="1:5">
       <c r="A516" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B516" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C516" t="s">
         <v>72</v>
@@ -33184,10 +33184,10 @@
     </row>
     <row r="517" spans="1:5">
       <c r="A517" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B517" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C517" t="s">
         <v>72</v>
@@ -33201,10 +33201,10 @@
     </row>
     <row r="518" spans="1:5">
       <c r="A518" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B518" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C518" t="s">
         <v>72</v>
@@ -33218,10 +33218,10 @@
     </row>
     <row r="519" spans="1:5">
       <c r="A519" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B519" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C519" t="s">
         <v>72</v>
@@ -33235,10 +33235,10 @@
     </row>
     <row r="520" spans="1:5">
       <c r="A520" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B520" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C520" t="s">
         <v>89</v>
@@ -33252,10 +33252,10 @@
     </row>
     <row r="521" spans="1:5">
       <c r="A521" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B521" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C521" t="s">
         <v>89</v>
@@ -33269,10 +33269,10 @@
     </row>
     <row r="522" spans="1:5">
       <c r="A522" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B522" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C522" t="s">
         <v>89</v>
@@ -33286,10 +33286,10 @@
     </row>
     <row r="523" spans="1:5">
       <c r="A523" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B523" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C523" t="s">
         <v>89</v>
@@ -33303,10 +33303,10 @@
     </row>
     <row r="524" spans="1:5">
       <c r="A524" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B524" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C524" t="s">
         <v>89</v>
@@ -33320,10 +33320,10 @@
     </row>
     <row r="525" spans="1:5">
       <c r="A525" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B525" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C525" t="s">
         <v>89</v>
@@ -33337,10 +33337,10 @@
     </row>
     <row r="526" spans="1:5">
       <c r="A526" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B526" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C526" t="s">
         <v>89</v>
@@ -33354,10 +33354,10 @@
     </row>
     <row r="527" spans="1:5">
       <c r="A527" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B527" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C527" t="s">
         <v>89</v>
@@ -33371,10 +33371,10 @@
     </row>
     <row r="528" spans="1:5">
       <c r="A528" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B528" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C528" t="s">
         <v>89</v>
@@ -33388,10 +33388,10 @@
     </row>
     <row r="529" spans="1:5">
       <c r="A529" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B529" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C529" t="s">
         <v>89</v>
@@ -33400,15 +33400,15 @@
         <v>84</v>
       </c>
       <c r="E529" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="530" spans="1:5">
       <c r="A530" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B530" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C530" t="s">
         <v>89</v>
@@ -33422,10 +33422,10 @@
     </row>
     <row r="531" spans="1:5">
       <c r="A531" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B531" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C531" t="s">
         <v>89</v>
@@ -33439,10 +33439,10 @@
     </row>
     <row r="532" spans="1:5">
       <c r="A532" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B532" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C532" t="s">
         <v>89</v>
@@ -33456,10 +33456,10 @@
     </row>
     <row r="533" spans="1:5">
       <c r="A533" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B533" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C533" t="s">
         <v>89</v>
@@ -33473,10 +33473,10 @@
     </row>
     <row r="534" spans="1:5">
       <c r="A534" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B534" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C534" t="s">
         <v>72</v>
@@ -33490,10 +33490,10 @@
     </row>
     <row r="535" spans="1:5">
       <c r="A535" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B535" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C535" t="s">
         <v>72</v>
@@ -33507,10 +33507,10 @@
     </row>
     <row r="536" spans="1:5">
       <c r="A536" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B536" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C536" t="s">
         <v>72</v>
@@ -33524,10 +33524,10 @@
     </row>
     <row r="537" spans="1:5">
       <c r="A537" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B537" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C537" t="s">
         <v>72</v>
@@ -33541,10 +33541,10 @@
     </row>
     <row r="538" spans="1:5">
       <c r="A538" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B538" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C538" t="s">
         <v>72</v>
@@ -33558,10 +33558,10 @@
     </row>
     <row r="539" spans="1:5">
       <c r="A539" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B539" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C539" t="s">
         <v>72</v>
@@ -33575,10 +33575,10 @@
     </row>
     <row r="540" spans="1:5">
       <c r="A540" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B540" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C540" t="s">
         <v>72</v>
@@ -33592,10 +33592,10 @@
     </row>
     <row r="541" spans="1:5">
       <c r="A541" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B541" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C541" t="s">
         <v>72</v>
@@ -33609,10 +33609,10 @@
     </row>
     <row r="542" spans="1:5">
       <c r="A542" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B542" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C542" t="s">
         <v>72</v>
@@ -33626,10 +33626,10 @@
     </row>
     <row r="543" spans="1:5">
       <c r="A543" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B543" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C543" t="s">
         <v>72</v>
@@ -33638,15 +33638,15 @@
         <v>84</v>
       </c>
       <c r="E543" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="544" spans="1:5">
       <c r="A544" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B544" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C544" t="s">
         <v>72</v>
@@ -33660,10 +33660,10 @@
     </row>
     <row r="545" spans="1:5">
       <c r="A545" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B545" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C545" t="s">
         <v>72</v>
@@ -33677,10 +33677,10 @@
     </row>
     <row r="546" spans="1:5">
       <c r="A546" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B546" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C546" t="s">
         <v>72</v>
@@ -33694,10 +33694,10 @@
     </row>
     <row r="547" spans="1:5">
       <c r="A547" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B547" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C547" t="s">
         <v>72</v>
@@ -33711,10 +33711,10 @@
     </row>
     <row r="548" spans="1:5">
       <c r="A548" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B548" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C548" t="s">
         <v>89</v>
@@ -33728,10 +33728,10 @@
     </row>
     <row r="549" spans="1:5">
       <c r="A549" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B549" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C549" t="s">
         <v>89</v>
@@ -33745,10 +33745,10 @@
     </row>
     <row r="550" spans="1:5">
       <c r="A550" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B550" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C550" t="s">
         <v>89</v>
@@ -33762,10 +33762,10 @@
     </row>
     <row r="551" spans="1:5">
       <c r="A551" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B551" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C551" t="s">
         <v>89</v>
@@ -33779,10 +33779,10 @@
     </row>
     <row r="552" spans="1:5">
       <c r="A552" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B552" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C552" t="s">
         <v>89</v>
@@ -33796,10 +33796,10 @@
     </row>
     <row r="553" spans="1:5">
       <c r="A553" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B553" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C553" t="s">
         <v>89</v>
@@ -33813,10 +33813,10 @@
     </row>
     <row r="554" spans="1:5">
       <c r="A554" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B554" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C554" t="s">
         <v>89</v>
@@ -33830,10 +33830,10 @@
     </row>
     <row r="555" spans="1:5">
       <c r="A555" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B555" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C555" t="s">
         <v>89</v>
@@ -33847,10 +33847,10 @@
     </row>
     <row r="556" spans="1:5">
       <c r="A556" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B556" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C556" t="s">
         <v>89</v>
@@ -33864,10 +33864,10 @@
     </row>
     <row r="557" spans="1:5">
       <c r="A557" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B557" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C557" t="s">
         <v>89</v>
@@ -33876,15 +33876,15 @@
         <v>84</v>
       </c>
       <c r="E557" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="558" spans="1:5">
       <c r="A558" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B558" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C558" t="s">
         <v>89</v>
@@ -33898,10 +33898,10 @@
     </row>
     <row r="559" spans="1:5">
       <c r="A559" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B559" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C559" t="s">
         <v>89</v>
@@ -33915,10 +33915,10 @@
     </row>
     <row r="560" spans="1:5">
       <c r="A560" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B560" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C560" t="s">
         <v>89</v>
@@ -33932,10 +33932,10 @@
     </row>
     <row r="561" spans="1:5">
       <c r="A561" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B561" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C561" t="s">
         <v>89</v>
@@ -33949,10 +33949,10 @@
     </row>
     <row r="562" spans="1:5">
       <c r="A562" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B562" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C562" t="s">
         <v>72</v>
@@ -33966,10 +33966,10 @@
     </row>
     <row r="563" spans="1:5">
       <c r="A563" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B563" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C563" t="s">
         <v>72</v>
@@ -33983,10 +33983,10 @@
     </row>
     <row r="564" spans="1:5">
       <c r="A564" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B564" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C564" t="s">
         <v>72</v>
@@ -34000,10 +34000,10 @@
     </row>
     <row r="565" spans="1:5">
       <c r="A565" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B565" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C565" t="s">
         <v>72</v>
@@ -34017,10 +34017,10 @@
     </row>
     <row r="566" spans="1:5">
       <c r="A566" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B566" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C566" t="s">
         <v>72</v>
@@ -34034,10 +34034,10 @@
     </row>
     <row r="567" spans="1:5">
       <c r="A567" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B567" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C567" t="s">
         <v>72</v>
@@ -34051,10 +34051,10 @@
     </row>
     <row r="568" spans="1:5">
       <c r="A568" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B568" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C568" t="s">
         <v>72</v>
@@ -34068,10 +34068,10 @@
     </row>
     <row r="569" spans="1:5">
       <c r="A569" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B569" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C569" t="s">
         <v>72</v>
@@ -34085,10 +34085,10 @@
     </row>
     <row r="570" spans="1:5">
       <c r="A570" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B570" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C570" t="s">
         <v>72</v>
@@ -34102,10 +34102,10 @@
     </row>
     <row r="571" spans="1:5">
       <c r="A571" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B571" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C571" t="s">
         <v>72</v>
@@ -34119,10 +34119,10 @@
     </row>
     <row r="572" spans="1:5">
       <c r="A572" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B572" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C572" t="s">
         <v>72</v>
@@ -34136,10 +34136,10 @@
     </row>
     <row r="573" spans="1:5">
       <c r="A573" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B573" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C573" t="s">
         <v>72</v>
@@ -34153,10 +34153,10 @@
     </row>
     <row r="574" spans="1:5">
       <c r="A574" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B574" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C574" t="s">
         <v>72</v>
@@ -34170,10 +34170,10 @@
     </row>
     <row r="575" spans="1:5">
       <c r="A575" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B575" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C575" t="s">
         <v>72</v>
@@ -34187,10 +34187,10 @@
     </row>
     <row r="576" spans="1:5">
       <c r="A576" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B576" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C576" t="s">
         <v>89</v>
@@ -34204,10 +34204,10 @@
     </row>
     <row r="577" spans="1:5">
       <c r="A577" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B577" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C577" t="s">
         <v>89</v>
@@ -34221,10 +34221,10 @@
     </row>
     <row r="578" spans="1:5">
       <c r="A578" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B578" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C578" t="s">
         <v>89</v>
@@ -34238,10 +34238,10 @@
     </row>
     <row r="579" spans="1:5">
       <c r="A579" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B579" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C579" t="s">
         <v>89</v>
@@ -34255,10 +34255,10 @@
     </row>
     <row r="580" spans="1:5">
       <c r="A580" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B580" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C580" t="s">
         <v>89</v>
@@ -34272,10 +34272,10 @@
     </row>
     <row r="581" spans="1:5">
       <c r="A581" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B581" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C581" t="s">
         <v>89</v>
@@ -34289,10 +34289,10 @@
     </row>
     <row r="582" spans="1:5">
       <c r="A582" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B582" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C582" t="s">
         <v>89</v>
@@ -34306,10 +34306,10 @@
     </row>
     <row r="583" spans="1:5">
       <c r="A583" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B583" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C583" t="s">
         <v>89</v>
@@ -34323,10 +34323,10 @@
     </row>
     <row r="584" spans="1:5">
       <c r="A584" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B584" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C584" t="s">
         <v>89</v>
@@ -34340,10 +34340,10 @@
     </row>
     <row r="585" spans="1:5">
       <c r="A585" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B585" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C585" t="s">
         <v>89</v>
@@ -34357,10 +34357,10 @@
     </row>
     <row r="586" spans="1:5">
       <c r="A586" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B586" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C586" t="s">
         <v>89</v>
@@ -34374,10 +34374,10 @@
     </row>
     <row r="587" spans="1:5">
       <c r="A587" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B587" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C587" t="s">
         <v>89</v>
@@ -34391,10 +34391,10 @@
     </row>
     <row r="588" spans="1:5">
       <c r="A588" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B588" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C588" t="s">
         <v>89</v>
@@ -34408,10 +34408,10 @@
     </row>
     <row r="589" spans="1:5">
       <c r="A589" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B589" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C589" t="s">
         <v>89</v>
@@ -34425,10 +34425,10 @@
     </row>
     <row r="590" spans="1:5">
       <c r="A590" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B590" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C590" t="s">
         <v>72</v>
@@ -34442,10 +34442,10 @@
     </row>
     <row r="591" spans="1:5">
       <c r="A591" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B591" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C591" t="s">
         <v>72</v>
@@ -34459,10 +34459,10 @@
     </row>
     <row r="592" spans="1:5">
       <c r="A592" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B592" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C592" t="s">
         <v>72</v>
@@ -34476,10 +34476,10 @@
     </row>
     <row r="593" spans="1:5">
       <c r="A593" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B593" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C593" t="s">
         <v>72</v>
@@ -34493,10 +34493,10 @@
     </row>
     <row r="594" spans="1:5">
       <c r="A594" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B594" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C594" t="s">
         <v>72</v>
@@ -34510,10 +34510,10 @@
     </row>
     <row r="595" spans="1:5">
       <c r="A595" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B595" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C595" t="s">
         <v>72</v>
@@ -34527,10 +34527,10 @@
     </row>
     <row r="596" spans="1:5">
       <c r="A596" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B596" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C596" t="s">
         <v>72</v>
@@ -34544,10 +34544,10 @@
     </row>
     <row r="597" spans="1:5">
       <c r="A597" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B597" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C597" t="s">
         <v>72</v>
@@ -34561,10 +34561,10 @@
     </row>
     <row r="598" spans="1:5">
       <c r="A598" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B598" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C598" t="s">
         <v>72</v>
@@ -34578,10 +34578,10 @@
     </row>
     <row r="599" spans="1:5">
       <c r="A599" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B599" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C599" t="s">
         <v>72</v>
@@ -34595,10 +34595,10 @@
     </row>
     <row r="600" spans="1:5">
       <c r="A600" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B600" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C600" t="s">
         <v>72</v>
@@ -34612,10 +34612,10 @@
     </row>
     <row r="601" spans="1:5">
       <c r="A601" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B601" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C601" t="s">
         <v>72</v>
@@ -34629,10 +34629,10 @@
     </row>
     <row r="602" spans="1:5">
       <c r="A602" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B602" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C602" t="s">
         <v>72</v>
@@ -34646,10 +34646,10 @@
     </row>
     <row r="603" spans="1:5">
       <c r="A603" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B603" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C603" t="s">
         <v>72</v>
@@ -34663,10 +34663,10 @@
     </row>
     <row r="604" spans="1:5">
       <c r="A604" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B604" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C604" t="s">
         <v>89</v>
@@ -34680,10 +34680,10 @@
     </row>
     <row r="605" spans="1:5">
       <c r="A605" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B605" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C605" t="s">
         <v>89</v>
@@ -34697,10 +34697,10 @@
     </row>
     <row r="606" spans="1:5">
       <c r="A606" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B606" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C606" t="s">
         <v>89</v>
@@ -34714,10 +34714,10 @@
     </row>
     <row r="607" spans="1:5">
       <c r="A607" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B607" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C607" t="s">
         <v>89</v>
@@ -34731,10 +34731,10 @@
     </row>
     <row r="608" spans="1:5">
       <c r="A608" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B608" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C608" t="s">
         <v>89</v>
@@ -34748,10 +34748,10 @@
     </row>
     <row r="609" spans="1:5">
       <c r="A609" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B609" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C609" t="s">
         <v>89</v>
@@ -34765,10 +34765,10 @@
     </row>
     <row r="610" spans="1:5">
       <c r="A610" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B610" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C610" t="s">
         <v>89</v>
@@ -34782,10 +34782,10 @@
     </row>
     <row r="611" spans="1:5">
       <c r="A611" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B611" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C611" t="s">
         <v>89</v>
@@ -34799,10 +34799,10 @@
     </row>
     <row r="612" spans="1:5">
       <c r="A612" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B612" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C612" t="s">
         <v>89</v>
@@ -34816,10 +34816,10 @@
     </row>
     <row r="613" spans="1:5">
       <c r="A613" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B613" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C613" t="s">
         <v>89</v>
@@ -34833,10 +34833,10 @@
     </row>
     <row r="614" spans="1:5">
       <c r="A614" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B614" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C614" t="s">
         <v>89</v>
@@ -34850,10 +34850,10 @@
     </row>
     <row r="615" spans="1:5">
       <c r="A615" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B615" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C615" t="s">
         <v>89</v>
@@ -34867,10 +34867,10 @@
     </row>
     <row r="616" spans="1:5">
       <c r="A616" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B616" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C616" t="s">
         <v>89</v>
@@ -34884,10 +34884,10 @@
     </row>
     <row r="617" spans="1:5">
       <c r="A617" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B617" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C617" t="s">
         <v>89</v>
@@ -34901,7 +34901,7 @@
     </row>
     <row r="618" spans="1:5">
       <c r="A618" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B618" t="s">
         <v>90</v>
@@ -34913,12 +34913,12 @@
         <v>73</v>
       </c>
       <c r="E618" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:5">
       <c r="A619" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B619" t="s">
         <v>90</v>
@@ -34930,12 +34930,12 @@
         <v>76</v>
       </c>
       <c r="E619" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:5">
       <c r="A620" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B620" t="s">
         <v>90</v>
@@ -34947,12 +34947,12 @@
         <v>77</v>
       </c>
       <c r="E620" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:5">
       <c r="A621" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B621" t="s">
         <v>90</v>
@@ -34964,12 +34964,12 @@
         <v>78</v>
       </c>
       <c r="E621" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:5">
       <c r="A622" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B622" t="s">
         <v>90</v>
@@ -34981,12 +34981,12 @@
         <v>79</v>
       </c>
       <c r="E622" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:5">
       <c r="A623" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B623" t="s">
         <v>90</v>
@@ -34998,12 +34998,12 @@
         <v>80</v>
       </c>
       <c r="E623" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:5">
       <c r="A624" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B624" t="s">
         <v>90</v>
@@ -35015,12 +35015,12 @@
         <v>81</v>
       </c>
       <c r="E624" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:5">
       <c r="A625" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B625" t="s">
         <v>90</v>
@@ -35032,12 +35032,12 @@
         <v>82</v>
       </c>
       <c r="E625" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:5">
       <c r="A626" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B626" t="s">
         <v>90</v>
@@ -35049,12 +35049,12 @@
         <v>83</v>
       </c>
       <c r="E626" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:5">
       <c r="A627" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B627" t="s">
         <v>90</v>
@@ -35066,12 +35066,12 @@
         <v>84</v>
       </c>
       <c r="E627" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:5">
       <c r="A628" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B628" t="s">
         <v>90</v>
@@ -35083,12 +35083,12 @@
         <v>85</v>
       </c>
       <c r="E628" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:5">
       <c r="A629" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B629" t="s">
         <v>90</v>
@@ -35100,12 +35100,12 @@
         <v>86</v>
       </c>
       <c r="E629" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:5">
       <c r="A630" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B630" t="s">
         <v>90</v>
@@ -35117,12 +35117,12 @@
         <v>87</v>
       </c>
       <c r="E630" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:5">
       <c r="A631" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B631" t="s">
         <v>90</v>
@@ -35134,12 +35134,12 @@
         <v>88</v>
       </c>
       <c r="E631" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:5">
       <c r="A632" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B632" t="s">
         <v>90</v>
@@ -35151,12 +35151,12 @@
         <v>73</v>
       </c>
       <c r="E632" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:5">
       <c r="A633" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B633" t="s">
         <v>90</v>
@@ -35168,12 +35168,12 @@
         <v>76</v>
       </c>
       <c r="E633" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:5">
       <c r="A634" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B634" t="s">
         <v>90</v>
@@ -35185,12 +35185,12 @@
         <v>77</v>
       </c>
       <c r="E634" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:5">
       <c r="A635" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B635" t="s">
         <v>90</v>
@@ -35202,12 +35202,12 @@
         <v>78</v>
       </c>
       <c r="E635" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:5">
       <c r="A636" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B636" t="s">
         <v>90</v>
@@ -35219,12 +35219,12 @@
         <v>79</v>
       </c>
       <c r="E636" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:5">
       <c r="A637" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B637" t="s">
         <v>90</v>
@@ -35236,12 +35236,12 @@
         <v>80</v>
       </c>
       <c r="E637" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:5">
       <c r="A638" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B638" t="s">
         <v>90</v>
@@ -35253,12 +35253,12 @@
         <v>81</v>
       </c>
       <c r="E638" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:5">
       <c r="A639" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B639" t="s">
         <v>90</v>
@@ -35270,12 +35270,12 @@
         <v>82</v>
       </c>
       <c r="E639" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:5">
       <c r="A640" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B640" t="s">
         <v>90</v>
@@ -35287,12 +35287,12 @@
         <v>83</v>
       </c>
       <c r="E640" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:5">
       <c r="A641" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B641" t="s">
         <v>90</v>
@@ -35304,12 +35304,12 @@
         <v>84</v>
       </c>
       <c r="E641" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:5">
       <c r="A642" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B642" t="s">
         <v>90</v>
@@ -35321,12 +35321,12 @@
         <v>85</v>
       </c>
       <c r="E642" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:5">
       <c r="A643" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B643" t="s">
         <v>90</v>
@@ -35338,12 +35338,12 @@
         <v>86</v>
       </c>
       <c r="E643" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:5">
       <c r="A644" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B644" t="s">
         <v>90</v>
@@ -35355,12 +35355,12 @@
         <v>87</v>
       </c>
       <c r="E644" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:5">
       <c r="A645" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B645" t="s">
         <v>90</v>
@@ -35372,12 +35372,12 @@
         <v>88</v>
       </c>
       <c r="E645" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:5">
       <c r="A646" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B646" t="s">
         <v>91</v>
@@ -35389,12 +35389,12 @@
         <v>73</v>
       </c>
       <c r="E646" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:5">
       <c r="A647" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B647" t="s">
         <v>91</v>
@@ -35406,12 +35406,12 @@
         <v>76</v>
       </c>
       <c r="E647" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:5">
       <c r="A648" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B648" t="s">
         <v>91</v>
@@ -35423,12 +35423,12 @@
         <v>77</v>
       </c>
       <c r="E648" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:5">
       <c r="A649" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B649" t="s">
         <v>91</v>
@@ -35440,12 +35440,12 @@
         <v>78</v>
       </c>
       <c r="E649" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:5">
       <c r="A650" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B650" t="s">
         <v>91</v>
@@ -35457,12 +35457,12 @@
         <v>79</v>
       </c>
       <c r="E650" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:5">
       <c r="A651" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B651" t="s">
         <v>91</v>
@@ -35474,12 +35474,12 @@
         <v>80</v>
       </c>
       <c r="E651" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:5">
       <c r="A652" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B652" t="s">
         <v>91</v>
@@ -35491,12 +35491,12 @@
         <v>81</v>
       </c>
       <c r="E652" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:5">
       <c r="A653" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B653" t="s">
         <v>91</v>
@@ -35508,12 +35508,12 @@
         <v>82</v>
       </c>
       <c r="E653" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:5">
       <c r="A654" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B654" t="s">
         <v>91</v>
@@ -35525,12 +35525,12 @@
         <v>83</v>
       </c>
       <c r="E654" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:5">
       <c r="A655" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B655" t="s">
         <v>91</v>
@@ -35542,12 +35542,12 @@
         <v>84</v>
       </c>
       <c r="E655" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:5">
       <c r="A656" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B656" t="s">
         <v>91</v>
@@ -35559,12 +35559,12 @@
         <v>85</v>
       </c>
       <c r="E656" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:5">
       <c r="A657" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B657" t="s">
         <v>91</v>
@@ -35576,12 +35576,12 @@
         <v>86</v>
       </c>
       <c r="E657" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:5">
       <c r="A658" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B658" t="s">
         <v>91</v>
@@ -35593,12 +35593,12 @@
         <v>87</v>
       </c>
       <c r="E658" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:5">
       <c r="A659" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B659" t="s">
         <v>91</v>
@@ -35610,12 +35610,12 @@
         <v>88</v>
       </c>
       <c r="E659" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:5">
       <c r="A660" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B660" t="s">
         <v>91</v>
@@ -35627,12 +35627,12 @@
         <v>73</v>
       </c>
       <c r="E660" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:5">
       <c r="A661" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B661" t="s">
         <v>91</v>
@@ -35644,12 +35644,12 @@
         <v>76</v>
       </c>
       <c r="E661" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:5">
       <c r="A662" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B662" t="s">
         <v>91</v>
@@ -35661,12 +35661,12 @@
         <v>77</v>
       </c>
       <c r="E662" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:5">
       <c r="A663" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B663" t="s">
         <v>91</v>
@@ -35678,12 +35678,12 @@
         <v>78</v>
       </c>
       <c r="E663" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:5">
       <c r="A664" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B664" t="s">
         <v>91</v>
@@ -35695,12 +35695,12 @@
         <v>79</v>
       </c>
       <c r="E664" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:5">
       <c r="A665" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B665" t="s">
         <v>91</v>
@@ -35712,12 +35712,12 @@
         <v>80</v>
       </c>
       <c r="E665" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:5">
       <c r="A666" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B666" t="s">
         <v>91</v>
@@ -35729,12 +35729,12 @@
         <v>81</v>
       </c>
       <c r="E666" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:5">
       <c r="A667" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B667" t="s">
         <v>91</v>
@@ -35746,12 +35746,12 @@
         <v>82</v>
       </c>
       <c r="E667" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:5">
       <c r="A668" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B668" t="s">
         <v>91</v>
@@ -35763,12 +35763,12 @@
         <v>83</v>
       </c>
       <c r="E668" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:5">
       <c r="A669" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B669" t="s">
         <v>91</v>
@@ -35780,12 +35780,12 @@
         <v>84</v>
       </c>
       <c r="E669" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:5">
       <c r="A670" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B670" t="s">
         <v>91</v>
@@ -35797,12 +35797,12 @@
         <v>85</v>
       </c>
       <c r="E670" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:5">
       <c r="A671" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B671" t="s">
         <v>91</v>
@@ -35814,12 +35814,12 @@
         <v>86</v>
       </c>
       <c r="E671" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:5">
       <c r="A672" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B672" t="s">
         <v>91</v>
@@ -35831,12 +35831,12 @@
         <v>87</v>
       </c>
       <c r="E672" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:5">
       <c r="A673" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B673" t="s">
         <v>91</v>
@@ -35848,7 +35848,7 @@
         <v>88</v>
       </c>
       <c r="E673" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:5">
